--- a/DataSet/ChangeEmailAddress.xlsx
+++ b/DataSet/ChangeEmailAddress.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/service_cube_automation_testing/DataSet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="525" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="520" windowWidth="20740" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Change Email Address" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -219,9 +227,6 @@
     <t>Change your email address</t>
   </si>
   <si>
-    <t>Email address</t>
-  </si>
-  <si>
     <t>CANCEL</t>
   </si>
   <si>
@@ -232,6 +237,9 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>New email address</t>
   </si>
 </sst>
 </file>
@@ -593,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,16 +612,16 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -647,7 +655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -655,26 +663,26 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>65</v>
       </c>
       <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -686,7 +694,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -699,7 +707,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -711,7 +719,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -723,7 +731,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -735,7 +743,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -748,7 +756,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -760,7 +768,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -768,7 +776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -776,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -784,7 +792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -795,7 +803,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -803,7 +811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -811,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -819,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
@@ -827,7 +835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
@@ -835,7 +843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -843,7 +851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
@@ -851,7 +859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -859,7 +867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -867,7 +875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -875,7 +883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -883,7 +891,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -891,7 +899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -899,7 +907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
@@ -907,7 +915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -915,7 +923,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>60</v>
       </c>
@@ -923,7 +931,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
